--- a/storage/exports/Respuesta.xlsx
+++ b/storage/exports/Respuesta.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>REF</t>
   </si>
@@ -31,16 +31,77 @@
     <t>PRECIO</t>
   </si>
   <si>
-    <t>COTuZT1</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>COTs9Y2</t>
-  </si>
-  <si>
-    <t>teclado</t>
+    <t>COTmM71</t>
+  </si>
+  <si>
+    <t>Calculad.Ecal TC028 11x15*</t>
+  </si>
+  <si>
+    <t>COTIOq2</t>
+  </si>
+  <si>
+    <t>Carp.[Base opaca] A4 B.Plus(20)
+Carp.[Base opaca] A4 B.Plus(20)</t>
+  </si>
+  <si>
+    <t>COT5yc3</t>
+  </si>
+  <si>
+    <t>Carp.[con folios] The-Pel A4 x10[6020]</t>
+  </si>
+  <si>
+    <t>COTwRE4</t>
+  </si>
+  <si>
+    <t>Carp.colgante JR plast.amarillo[A181](50)</t>
+  </si>
+  <si>
+    <t>COT3I75</t>
+  </si>
+  <si>
+    <t>Calculad.Ecal TC010 14x14*</t>
+  </si>
+  <si>
+    <t>COTiVO6</t>
+  </si>
+  <si>
+    <t>Cart.p/epson T115 negro</t>
+  </si>
+  <si>
+    <t>COTFvE7</t>
+  </si>
+  <si>
+    <t>Fichero metálico Nº1 [P/300 fichas 1]</t>
+  </si>
+  <si>
+    <t>COTCKZ8</t>
+  </si>
+  <si>
+    <t>Nota adh.Simball banderita fluo x5(50)</t>
+  </si>
+  <si>
+    <t>COTCO79</t>
+  </si>
+  <si>
+    <t>Pizarra Faber Kit+8colores+borrador</t>
+  </si>
+  <si>
+    <t>COTDrM10</t>
+  </si>
+  <si>
+    <t>Pizarra Olami Blanca Laminada 60x90cm</t>
+  </si>
+  <si>
+    <t>COTuIJ11</t>
+  </si>
+  <si>
+    <t>Pizarra Olami Corcho Aluminio 60x90cm</t>
+  </si>
+  <si>
+    <t>COTU7O12</t>
+  </si>
+  <si>
+    <t>Pizarra Onix Blanca Magnetica 45x60cm</t>
   </si>
 </sst>
 </file>
@@ -576,62 +637,102 @@
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="12"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="12"/>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="12"/>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="12"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="12"/>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="12"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="12"/>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="12"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="12"/>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="12"/>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="12"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="12"/>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="12"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="12"/>
       <c r="D13" s="15"/>
     </row>
